--- a/science_proficiency_preschools_only.xlsx
+++ b/science_proficiency_preschools_only.xlsx
@@ -551,17 +551,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -594,17 +616,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,17 +681,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,17 +746,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -723,17 +811,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -766,17 +876,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -809,17 +941,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -852,17 +1006,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -895,17 +1071,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -938,17 +1136,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -981,17 +1201,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1024,17 +1266,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1067,17 +1331,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1110,17 +1396,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1153,17 +1461,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1196,17 +1526,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1239,17 +1591,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1282,17 +1656,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1325,17 +1721,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1368,17 +1786,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1411,17 +1851,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1454,17 +1916,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1497,17 +1981,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1540,17 +2046,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1583,17 +2111,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1626,17 +2176,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1669,17 +2241,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1712,17 +2306,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1755,17 +2371,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1798,17 +2436,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1841,17 +2501,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1884,17 +2566,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1927,17 +2631,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1970,17 +2696,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2013,17 +2761,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2056,17 +2826,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2099,17 +2891,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2142,17 +2956,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2185,17 +3021,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2228,17 +3086,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2271,17 +3151,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2314,17 +3216,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2357,17 +3281,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2400,17 +3346,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2443,17 +3411,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2486,17 +3476,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2529,17 +3541,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2572,17 +3606,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2615,17 +3671,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2658,17 +3736,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2701,17 +3801,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2744,17 +3866,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2787,17 +3931,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2830,17 +3996,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2858,7 +4046,9 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>LARGE</t>
@@ -2869,17 +4059,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2912,17 +4124,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2955,17 +4189,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2998,17 +4254,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3041,17 +4319,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3084,17 +4384,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3127,17 +4449,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3170,17 +4514,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3213,17 +4579,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3256,17 +4644,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3299,17 +4709,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3342,17 +4774,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3385,17 +4839,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3428,17 +4904,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3471,17 +4969,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3514,17 +5034,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3557,17 +5099,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3600,17 +5164,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3643,17 +5229,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3686,17 +5294,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3729,17 +5359,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3772,17 +5424,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3815,17 +5489,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3858,17 +5554,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3901,17 +5619,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3944,17 +5684,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3987,17 +5749,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4030,17 +5814,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4073,17 +5879,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4116,17 +5944,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4159,17 +6009,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4202,17 +6074,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4245,17 +6139,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4288,17 +6204,39 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/science_proficiency_preschools_only.xlsx
+++ b/science_proficiency_preschools_only.xlsx
@@ -551,38 +551,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -616,38 +638,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -681,38 +725,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -746,38 +812,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -811,38 +899,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -876,38 +986,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -941,38 +1073,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1006,38 +1160,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1071,38 +1247,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1136,38 +1334,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1201,38 +1421,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1266,38 +1508,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1331,38 +1595,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1396,38 +1682,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1461,38 +1769,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1526,38 +1856,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1591,38 +1943,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1656,38 +2030,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1721,38 +2117,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1786,38 +2204,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1851,38 +2291,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1916,38 +2378,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1981,38 +2465,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2046,38 +2552,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2111,38 +2639,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2176,38 +2726,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2241,38 +2813,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2306,38 +2900,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2371,38 +2987,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2436,38 +3074,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2501,38 +3161,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2566,38 +3248,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2631,38 +3335,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2696,38 +3422,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2761,38 +3509,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2826,38 +3596,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2891,38 +3683,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2956,38 +3770,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3021,38 +3857,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3086,38 +3944,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3151,38 +4031,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3216,38 +4118,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3281,38 +4205,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3346,38 +4292,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3411,38 +4379,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3476,38 +4466,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3541,38 +4553,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3606,38 +4640,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3671,38 +4727,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3736,38 +4814,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3801,38 +4901,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3866,38 +4988,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3931,38 +5075,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3996,38 +5162,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4046,8 +5234,10 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4059,38 +5249,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4124,38 +5336,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4189,38 +5423,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4254,38 +5510,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4319,38 +5597,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4384,38 +5684,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4449,38 +5771,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4514,38 +5858,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4579,38 +5945,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4644,38 +6032,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4709,38 +6119,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4774,38 +6206,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4839,38 +6293,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4904,38 +6380,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4969,38 +6467,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -5034,38 +6554,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -5099,38 +6641,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -5164,38 +6728,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -5229,38 +6815,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -5294,38 +6902,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -5359,38 +6989,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -5424,38 +7076,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5489,38 +7163,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -5554,38 +7250,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -5619,38 +7337,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5684,38 +7424,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5749,38 +7511,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5814,38 +7598,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -5879,38 +7685,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5944,38 +7772,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -6009,38 +7859,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -6074,38 +7946,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -6139,38 +8033,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -6204,38 +8120,60 @@
           <t>PreK</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/science_proficiency_preschools_only.xlsx
+++ b/science_proficiency_preschools_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># Science Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +611,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -693,6 +703,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -780,6 +795,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -867,6 +887,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -954,6 +979,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1041,6 +1071,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1128,6 +1163,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1215,6 +1255,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1302,6 +1347,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1389,6 +1439,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1476,6 +1531,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1563,6 +1623,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1650,6 +1715,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1737,6 +1807,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1824,6 +1899,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1911,6 +1991,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1998,6 +2083,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2085,6 +2175,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2172,6 +2267,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2259,6 +2359,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2346,6 +2451,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2433,6 +2543,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2520,6 +2635,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2607,6 +2727,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2694,6 +2819,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2781,6 +2911,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2868,6 +3003,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2955,6 +3095,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3042,6 +3187,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3129,6 +3279,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3216,6 +3371,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3303,6 +3463,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3390,6 +3555,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3477,6 +3647,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3564,6 +3739,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3651,6 +3831,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3738,6 +3923,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3825,6 +4015,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3912,6 +4107,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3999,6 +4199,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4086,6 +4291,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4173,6 +4383,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4260,6 +4475,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4347,6 +4567,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4434,6 +4659,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4521,6 +4751,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4608,6 +4843,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4695,6 +4935,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4782,6 +5027,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4869,6 +5119,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4956,6 +5211,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5043,6 +5303,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5130,6 +5395,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5217,6 +5487,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5304,6 +5579,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5391,6 +5671,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5478,6 +5763,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5565,6 +5855,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5652,6 +5947,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5739,6 +6039,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5826,6 +6131,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5913,6 +6223,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6000,6 +6315,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6087,6 +6407,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6174,6 +6499,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6261,6 +6591,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6348,6 +6683,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6435,6 +6775,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6522,6 +6867,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6609,6 +6959,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6696,6 +7051,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6783,6 +7143,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6870,6 +7235,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6957,6 +7327,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7044,6 +7419,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7131,6 +7511,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7218,6 +7603,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7305,6 +7695,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7392,6 +7787,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7479,6 +7879,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7566,6 +7971,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7653,6 +8063,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7740,6 +8155,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7827,6 +8247,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7914,6 +8339,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8001,6 +8431,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8088,6 +8523,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8173,6 +8613,11 @@
       <c r="Q89" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
